--- a/study_1.xlsx
+++ b/study_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niklas\Desktop\Medieninformatik\Semester_5\UE\Woche_3_usability_messen\Studie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susnn\Documents\GitHub\-bungsblatt_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA80F870-75CE-41F6-B5B8-0768163A3ABF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564CE10E-7D27-43EF-A0B7-8401F0EE2C49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="45" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Benutzer</t>
   </si>
@@ -388,7 +388,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,6 @@
         <v>0.27083333333333331</v>
       </c>
       <c r="F2" s="1">
-        <f>AVERAGE(C2:E2)</f>
         <v>0.1875</v>
       </c>
     </row>
@@ -458,23 +457,71 @@
         <v>0.14861111111111111</v>
       </c>
       <c r="F3" s="1">
-        <f>AVERAGE(C3:E3)</f>
-        <v>6.7129629629629636E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.12291666666666667</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.15833333333333333</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.12013888888888889</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8.7500000000000008E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C5)</f>
+        <v>0.10642361111111112</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:F7" si="0">AVERAGE(D2:D5)</f>
+        <v>6.7534722222222232E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17326388888888888</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1154513888888889</v>
       </c>
     </row>
   </sheetData>
